--- a/src/test/resources/large/fill.xlsx
+++ b/src/test/resources/large/fill.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="12855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18768" windowHeight="12852"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>str1</t>
   </si>
@@ -166,19 +166,45 @@
   </si>
   <si>
     <t>{.str25}</t>
+  </si>
+  <si>
+    <t>nv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>av</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.nv}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.lv}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.dv}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.av}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,349 +216,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -540,313 +244,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1137,100 +555,108 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:IV2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:IZ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:IV2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:256">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:260">
+      <c r="A1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
@@ -1458,87 +884,99 @@
       <c r="IT1" s="1"/>
       <c r="IU1" s="1"/>
       <c r="IV1" s="1"/>
+      <c r="IW1" s="1"/>
+      <c r="IX1" s="1"/>
+      <c r="IY1" s="1"/>
+      <c r="IZ1" s="1"/>
     </row>
-    <row r="2" spans="1:256">
+    <row r="2" spans="1:260">
       <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
@@ -1766,44 +1204,42 @@
       <c r="IT2" s="1"/>
       <c r="IU2" s="1"/>
       <c r="IV2" s="1"/>
+      <c r="IW2" s="1"/>
+      <c r="IX2" s="1"/>
+      <c r="IY2" s="1"/>
+      <c r="IZ2" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>